--- a/Base de Dados.xlsx
+++ b/Base de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmp1\OneDrive\Área de Trabalho\Programacao\Faculdade\Metodos\Projeto-Final-Metodos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC2202-EB0E-4090-8247-03C0687F4531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F15E5DE-3AA4-4435-A1EE-C6BB64B1166E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="0" windowWidth="15555" windowHeight="12885" xr2:uid="{79DE58F6-FD71-441F-BDE5-5D4EC6425DF4}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="16200" windowHeight="9270" xr2:uid="{79DE58F6-FD71-441F-BDE5-5D4EC6425DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D825E8E1-1276-450F-B29F-9547EDDFCB70}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,15 @@
         <v>2010</v>
       </c>
       <c r="B9" s="4">
-        <v>1.91</v>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
